--- a/upload/KE-HOACH-GIANG-DAY-HTTT-K42.xlsx
+++ b/upload/KE-HOACH-GIANG-DAY-HTTT-K42.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20280" windowHeight="7650"/>
+    <workbookView xWindow="285" yWindow="315" windowWidth="20730" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="Ke hoach GD HTTT K42 (2)" sheetId="1" r:id="rId1"/>
@@ -17,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Ke hoach GD HTTT K42 (2)'!$A$1:$J$78</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="108">
   <si>
     <t>TRƯỜNG CAO ĐẲNG CẦN THƠ</t>
   </si>
@@ -34,12 +29,6 @@
   </si>
   <si>
     <t>Độc lập - Tự do - Hạnh phúc</t>
-  </si>
-  <si>
-    <t>KẾ HOẠCH GIẢNG DẠY HỆ CAO ĐẲNG - KHÓA 42</t>
-  </si>
-  <si>
-    <t>Khóa học 42 (2017-2020)</t>
   </si>
   <si>
     <t>STT</t>
@@ -391,22 +380,19 @@
     </r>
   </si>
   <si>
-    <t>NL091</t>
-  </si>
-  <si>
-    <t>GC011</t>
-  </si>
-  <si>
-    <t>GQ011</t>
-  </si>
-  <si>
-    <t>AC011</t>
-  </si>
-  <si>
     <t>AC010</t>
   </si>
   <si>
-    <t>Ngành đào tạo: CN May     Mã Ngành: 6540204</t>
+    <t>AC070</t>
+  </si>
+  <si>
+    <t>Ngành đào tạo: Quản trị mạng 2   Mã ngành: 6480211</t>
+  </si>
+  <si>
+    <t>Khóa học 43 (2018-2021)</t>
+  </si>
+  <si>
+    <t>KẾ HOẠCH GIẢNG DẠY HỆ CAO ĐẲNG - KHÓA 43</t>
   </si>
 </sst>
 </file>
@@ -580,8 +566,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -607,14 +599,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,9 +611,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -769,7 +752,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -804,7 +787,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1019,7 +1002,7 @@
   <dimension ref="A1:L78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:J5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1035,133 +1018,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="E1" s="17" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="E1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="E2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="E2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
+      <c r="A4" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
+      <c r="A5" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
     </row>
     <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="A6" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
+      <c r="A8" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K9" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="L9" s="25"/>
+      <c r="K9" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="16"/>
     </row>
     <row r="10" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="K10" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1169,14 +1152,14 @@
         <v>1</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6">
@@ -1201,14 +1184,14 @@
         <v>2</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6">
@@ -1229,14 +1212,14 @@
         <v>3</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6">
@@ -1257,14 +1240,14 @@
         <v>4</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6">
@@ -1285,14 +1268,14 @@
         <v>5</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6">
@@ -1313,16 +1296,16 @@
         <v>6</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" s="6">
         <v>3</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6">
@@ -1349,16 +1332,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17" s="6">
         <v>2</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6">
@@ -1385,16 +1368,16 @@
         <v>8</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" s="6">
         <v>3</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6">
@@ -1417,11 +1400,11 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
+      <c r="A19" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="11">
         <f>SUM(D11:D18)</f>
         <v>8</v>
@@ -1447,49 +1430,49 @@
     </row>
     <row r="20" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
+      <c r="A21" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
     </row>
     <row r="23" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="D23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="E23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="G23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="I23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="J23" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1497,14 +1480,14 @@
         <v>1</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6">
@@ -1525,14 +1508,14 @@
         <v>2</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6">
@@ -1553,14 +1536,14 @@
         <v>3</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6">
@@ -1581,14 +1564,14 @@
         <v>4</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6">
@@ -1609,16 +1592,16 @@
         <v>5</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D28" s="6">
         <v>2</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6">
@@ -1639,16 +1622,16 @@
         <v>6</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D29" s="6">
         <v>3</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6">
@@ -1675,16 +1658,16 @@
         <v>7</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D30" s="6">
         <v>3</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6">
@@ -1711,16 +1694,16 @@
         <v>8</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D31" s="6">
         <v>3</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6">
@@ -1747,14 +1730,14 @@
         <v>9</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6">
@@ -1771,11 +1754,11 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
+      <c r="A33" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
       <c r="D33" s="11">
         <f>SUM(D24:D32)</f>
         <v>11</v>
@@ -1801,49 +1784,49 @@
     </row>
     <row r="34" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
+      <c r="A35" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
     </row>
     <row r="37" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="D37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="E37" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="F37" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="G37" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="H37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="I37" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="J37" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1851,16 +1834,16 @@
         <v>1</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D38" s="6">
         <v>3</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6">
@@ -1881,16 +1864,16 @@
         <v>2</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D39" s="6">
         <v>3</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6">
@@ -1911,16 +1894,16 @@
         <v>3</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D40" s="6">
         <v>3</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6">
@@ -1941,16 +1924,16 @@
         <v>4</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D41" s="6">
         <v>3</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6">
@@ -1971,16 +1954,16 @@
         <v>5</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D42" s="6">
         <v>3</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6">
@@ -2001,16 +1984,16 @@
         <v>6</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D43" s="6">
         <v>2</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6">
@@ -2031,14 +2014,14 @@
         <v>7</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6">
@@ -2055,11 +2038,11 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="11">
         <f>SUM(D38:D43)</f>
         <v>17</v>
@@ -2084,49 +2067,49 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
+      <c r="A47" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
     </row>
     <row r="49" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="D49" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="E49" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="F49" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="G49" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="H49" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="I49" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="J49" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2134,16 +2117,16 @@
         <v>1</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D50" s="6">
         <v>3</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6">
@@ -2164,16 +2147,16 @@
         <v>2</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D51" s="6">
         <v>3</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6">
@@ -2194,16 +2177,16 @@
         <v>3</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D52" s="6">
         <v>3</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6">
@@ -2224,16 +2207,16 @@
         <v>4</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D53" s="6">
         <v>3</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6">
@@ -2254,16 +2237,16 @@
         <v>5</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D54" s="6">
         <v>3</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6">
@@ -2284,16 +2267,16 @@
         <v>6</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D55" s="6">
         <v>1</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6">
@@ -2314,14 +2297,14 @@
         <v>7</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6">
@@ -2338,11 +2321,11 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
       <c r="D57" s="11">
         <f>SUM(D50:D56)</f>
         <v>16</v>
@@ -2367,49 +2350,49 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
+      <c r="A59" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
     </row>
     <row r="61" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="D61" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="E61" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="F61" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="G61" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="H61" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="I61" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H61" s="5" t="s">
+      <c r="J61" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J61" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2417,16 +2400,16 @@
         <v>1</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D62" s="6">
         <v>3</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6">
@@ -2451,16 +2434,16 @@
         <v>2</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D63" s="6">
         <v>3</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="6">
@@ -2481,16 +2464,16 @@
         <v>3</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D64" s="6">
         <v>2</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6">
@@ -2511,14 +2494,14 @@
         <v>4</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6">
@@ -2539,17 +2522,17 @@
         <v>5</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D66" s="6">
         <v>1</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G66" s="6">
         <v>45</v>
@@ -2565,21 +2548,21 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="24">
+      <c r="A67" s="26">
         <v>6</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D67" s="6">
         <v>2</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G67" s="6">
         <v>45</v>
@@ -2595,19 +2578,19 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="24"/>
+      <c r="A68" s="26"/>
       <c r="B68" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D68" s="6">
         <v>2</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G68" s="6">
         <v>45</v>
@@ -2623,19 +2606,19 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="24"/>
+      <c r="A69" s="26"/>
       <c r="B69" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D69" s="6">
         <v>2</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G69" s="6">
         <v>45</v>
@@ -2651,19 +2634,19 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="24"/>
+      <c r="A70" s="26"/>
       <c r="B70" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D70" s="6">
         <v>2</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G70" s="6">
         <v>45</v>
@@ -2679,11 +2662,11 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
+      <c r="A71" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
       <c r="D71" s="11">
         <f>SUM(D62:D67)</f>
         <v>11</v>
@@ -2708,48 +2691,46 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G73" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
+      <c r="G73" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
     </row>
     <row r="74" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17" t="s">
+      <c r="A74" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
     </row>
     <row r="77" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
+      <c r="A78" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="G74:J74"/>
+    <mergeCell ref="A78:C78"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A8:J8"/>
@@ -2762,11 +2743,13 @@
     <mergeCell ref="A57:C57"/>
     <mergeCell ref="A59:J59"/>
     <mergeCell ref="A67:A70"/>
-    <mergeCell ref="G73:J73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="G74:J74"/>
-    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="A4:J4"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
